--- a/Top_50_Amazon_Best_Sellers_in_Books/Top_50_BestSellers.xlsx
+++ b/Top_50_Amazon_Best_Sellers_in_Books/Top_50_BestSellers.xlsx
@@ -471,14 +471,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>₹ 264.00</t>
+          <t>₹ 217.00</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="E2" t="n">
-        <v>21</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3">
@@ -492,14 +492,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>₹ 295.00</t>
+          <t>₹ 373.00</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>4.6</v>
       </c>
       <c r="E3" t="n">
-        <v>13442</v>
+        <v>13890</v>
       </c>
     </row>
     <row r="4">
@@ -520,7 +520,7 @@
         <v>4.5</v>
       </c>
       <c r="E4" t="n">
-        <v>21539</v>
+        <v>22075</v>
       </c>
     </row>
     <row r="5">
@@ -529,19 +529,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Indian Polity - For Civil Services and Other State Examinations | 6th Edition</t>
+          <t>My First Book of Patterns Pencil Control: Patterns Practice book for kids (Pattern Writing)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>₹ 625.00</t>
+          <t>₹ 89.00</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="E5" t="n">
-        <v>8168</v>
+        <v>5001</v>
       </c>
     </row>
     <row r="6">
@@ -550,19 +550,19 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>My First Book of Patterns Pencil Control: Patterns Practice book for kids (Pattern Writing)</t>
+          <t>The Psychology of Money</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>₹ 89.00</t>
+          <t>₹ 349.00</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="E6" t="n">
-        <v>4834</v>
+        <v>8756</v>
       </c>
     </row>
     <row r="7">
@@ -576,14 +576,14 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>₹ 204.00</t>
+          <t>₹ 205.00</t>
         </is>
       </c>
       <c r="D7" t="n">
         <v>4.6</v>
       </c>
       <c r="E7" t="n">
-        <v>4958</v>
+        <v>5155</v>
       </c>
     </row>
     <row r="8">
@@ -592,19 +592,19 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>World’s Greatest Books For Personal Growth &amp; Wealth (Set of 4 Books): Perfect Motivational Gift Set</t>
+          <t>Indian Polity - For Civil Services and Other State Examinations | 6th Edition</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>₹ 299.00</t>
+          <t>₹ 620.00</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="E8" t="n">
-        <v>5752</v>
+        <v>8477</v>
       </c>
     </row>
     <row r="9">
@@ -613,19 +613,19 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rich Dad Poor Dad: What the Rich Teach Their Kids About Money That the Poor and Middle Class Do Not!</t>
+          <t>World’s Greatest Books For Personal Growth &amp; Wealth (Set of 4 Books): Perfect Motivational Gift Set</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>₹ 302.00</t>
+          <t>₹ 299.00</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="E9" t="n">
-        <v>39442</v>
+        <v>6080</v>
       </c>
     </row>
     <row r="10">
@@ -634,19 +634,19 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>The Psychology of Money</t>
+          <t>Writing Practice Boxset: Pack of 4 Books (Writing Fun: Write and Practice Capital Letters, Small Letters, Patterns and…</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>₹ 353.00</t>
+          <t>₹ 159.00</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="E10" t="n">
-        <v>8480</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="11">
@@ -655,19 +655,19 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>The Alchemist</t>
+          <t>Rich Dad Poor Dad: What the Rich Teach Their Kids About Money That the Poor and Middle Class Do Not!</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>₹ 198.00</t>
+          <t>₹ 374.00</t>
         </is>
       </c>
       <c r="D11" t="n">
         <v>4.6</v>
       </c>
       <c r="E11" t="n">
-        <v>51401</v>
+        <v>39705</v>
       </c>
     </row>
     <row r="12">
@@ -676,19 +676,19 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Writing Practice Boxset: Pack of 4 Books (Writing Fun: Write and Practice Capital Letters, Small Letters, Patterns and…</t>
+          <t>Very First Sight Words Sentences Level - 1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>₹ 159.00</t>
+          <t>₹ 108.00</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="E12" t="n">
-        <v>2479</v>
+        <v>3199</v>
       </c>
     </row>
     <row r="13">
@@ -697,19 +697,19 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Very First Sight Words Sentences Level - 1</t>
+          <t>The Alchemist</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>₹ 108.00</t>
+          <t>₹ 251.00</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="E13" t="n">
-        <v>3018</v>
+        <v>51910</v>
       </c>
     </row>
     <row r="14">
@@ -718,19 +718,19 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Quantitative Aptitude for Competitive Examinations</t>
+          <t>Atomic Habits: The life-changing million copy bestseller</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>₹ 439.00</t>
+          <t>₹ 646.00</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="E14" t="n">
-        <v>11212</v>
+        <v>18200</v>
       </c>
     </row>
     <row r="15">
@@ -739,19 +739,19 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Picture Books Collection for Early Learning (Set of 12)</t>
+          <t>Quantitative Aptitude for Competitive Examinations</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>₹ 235.00</t>
+          <t>₹ 465.00</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="E15" t="n">
-        <v>5630</v>
+        <v>11606</v>
       </c>
     </row>
     <row r="16">
@@ -760,19 +760,19 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>The Power of Your Subconscious Mind</t>
+          <t>Picture Books Collection for Early Learning (Set of 12)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>₹ 141.00</t>
+          <t>₹ 229.00</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="E16" t="n">
-        <v>30249</v>
+        <v>5832</v>
       </c>
     </row>
     <row r="17">
@@ -781,19 +781,19 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>26 Years UPSC IAS/ IPS Prelims Topic-wise Solved Papers 1 &amp; 2 (1995 - 2020) 11th Edition</t>
+          <t>Word Power Made Easy</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>₹ 327.00</t>
+          <t>₹ 88.00</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="E17" t="n">
-        <v>1660</v>
+        <v>20316</v>
       </c>
     </row>
     <row r="18">
@@ -802,19 +802,19 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>One Arranged Murder</t>
+          <t>Think Like a Monk: The secret of how to harness the power of positivity and be happy now</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>₹ 152.00</t>
+          <t>₹ 269.00</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="E18" t="n">
-        <v>8400</v>
+        <v>12907</v>
       </c>
     </row>
     <row r="19">
@@ -823,19 +823,19 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Oxford Student Atlas for India - Third Edition</t>
+          <t>101 Brain Booster Activity Book: Fun Activity Book For Children</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>₹ 240.00</t>
+          <t>₹ 129.00</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="E19" t="n">
-        <v>5129</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="20">
@@ -844,19 +844,19 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Mathematics for Class 10 by R D Sharma (Examination 2021-22)</t>
+          <t>Refreshing Mandala - Colouring Book for Adults Book 1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>₹ 494.00</t>
+          <t>₹ 150.00</t>
         </is>
       </c>
       <c r="D20" t="n">
         <v>4.6</v>
       </c>
       <c r="E20" t="n">
-        <v>1364</v>
+        <v>3442</v>
       </c>
     </row>
     <row r="21">
@@ -865,19 +865,19 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1001 Activities Book</t>
+          <t>One Arranged Murder</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>₹ 240.00</t>
+          <t>₹ 144.00</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="E21" t="n">
-        <v>3926</v>
+        <v>8754</v>
       </c>
     </row>
     <row r="22">
@@ -891,14 +891,14 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>₹ 168.00</t>
+          <t>₹ 148.00</t>
         </is>
       </c>
       <c r="D22" t="n">
         <v>4.4</v>
       </c>
       <c r="E22" t="n">
-        <v>10716</v>
+        <v>10991</v>
       </c>
     </row>
     <row r="23">
@@ -907,19 +907,19 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Life's Amazing Secrets: How to Find Balance and Purpose in Your Life</t>
+          <t>Oxford Student Atlas for India - Third Edition</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>₹ 158.00</t>
+          <t>₹ 225.00</t>
         </is>
       </c>
       <c r="D23" t="n">
         <v>4.6</v>
       </c>
       <c r="E23" t="n">
-        <v>7171</v>
+        <v>5366</v>
       </c>
     </row>
     <row r="24">
@@ -928,19 +928,19 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>101 Brain Booster Activity Book: Fun Activity Book For Children</t>
+          <t>101 Panchatantra Stories for Children: Colourful Illustrated Stories</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>₹ 129.00</t>
+          <t>₹ 157.00</t>
         </is>
       </c>
       <c r="D24" t="n">
         <v>4.4</v>
       </c>
       <c r="E24" t="n">
-        <v>979</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="25">
@@ -949,19 +949,19 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Word Power Made Easy</t>
+          <t>Sapiens: A Brief History of Humankind</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>₹ 95.00</t>
+          <t>₹ 340.00</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="E25" t="n">
-        <v>19881</v>
+        <v>32162</v>
       </c>
     </row>
     <row r="26">
@@ -970,19 +970,19 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Refreshing Mandala - Colouring Book for Adults Book 1</t>
+          <t>26 Years UPSC IAS/ IPS Prelims Topic-wise Solved Papers 1 &amp; 2 (1995 - 2020) 11th Edition</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>₹ 150.00</t>
+          <t>₹ 329.00</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="E26" t="n">
-        <v>3330</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="27">
@@ -991,19 +991,19 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Objective NCERT at your FINGERTIPS for NEET-AIIMS - Biology</t>
+          <t>The Power of Your Subconscious Mind</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>₹ 562.00</t>
+          <t>₹ 141.00</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="E27" t="n">
-        <v>1321</v>
+        <v>30768</v>
       </c>
     </row>
     <row r="28">
@@ -1012,19 +1012,19 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Lines and Curves (Pattern Writing) - Part 1</t>
+          <t>1001 Activities Book</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>₹ 60.00</t>
+          <t>₹ 240.00</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="E28" t="n">
-        <v>2528</v>
+        <v>4066</v>
       </c>
     </row>
     <row r="29">
@@ -1033,19 +1033,19 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Atomic Habits: The life-changing million copy bestseller</t>
+          <t>As a Man Thinketh</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>₹ 646.00</t>
+          <t>₹ 59.00</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="E29" t="n">
-        <v>17984</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="30">
@@ -1054,19 +1054,19 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>My Activity- ABC Colouring Book</t>
+          <t>Objective NCERT at your FINGERTIPS for NEET-AIIMS - Biology</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>₹ 60.00</t>
+          <t>₹ 596.00</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="E30" t="n">
-        <v>1403</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="31">
@@ -1075,19 +1075,19 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Concept of Physics Part-1 (2019-2020 Session) by H.C Verma</t>
+          <t>The Magic of the Lost Temple: Illustrated, easy to read and much-loved first full length children’s fiction novel by…</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>₹ 347.00</t>
+          <t>₹ 145.00</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="E31" t="n">
-        <v>5084</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="32">
@@ -1096,19 +1096,19 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Think Like a Monk: The secret of how to harness the power of positivity and be happy now</t>
+          <t>Concept of Physics Part-1 (2019-2020 Session) by H.C Verma</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>₹ 300.00</t>
+          <t>₹ 347.00</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="E32" t="n">
-        <v>12624</v>
+        <v>5205</v>
       </c>
     </row>
     <row r="33">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>The Intelligent Investor (English) Paperback – 2013</t>
+          <t>Great Stories for Children</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>₹ 539.00</t>
+          <t>₹ 195.00</t>
         </is>
       </c>
       <c r="D33" t="n">
         <v>4.5</v>
       </c>
       <c r="E33" t="n">
-        <v>22476</v>
+        <v>4155</v>
       </c>
     </row>
     <row r="34">
@@ -1138,19 +1138,19 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>101 Panchatantra Stories for Children: Colourful Illustrated Stories</t>
+          <t>My Activity- ABC Colouring Book</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>₹ 135.00</t>
+          <t>₹ 70.00</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="E34" t="n">
-        <v>965</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="35">
@@ -1159,19 +1159,19 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Harry Potter and the Philosopher's Stone</t>
+          <t>The Complete Novels of Sherlock Holmes</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>₹ 280.00</t>
+          <t>₹ 136.00</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="E35" t="n">
-        <v>26226</v>
+        <v>7482</v>
       </c>
     </row>
     <row r="36">
@@ -1180,19 +1180,19 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Sapiens: A Brief History of Humankind</t>
+          <t>Lines and Curves (Pattern Writing) - Part 1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>₹ 370.00</t>
+          <t>₹ 70.00</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="E36" t="n">
-        <v>31915</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="37">
@@ -1201,19 +1201,19 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>The Magic of the Lost Temple: Illustrated, easy to read and much-loved first full length children’s fiction novel by…</t>
+          <t>Mathematics for Class 10 by R D Sharma (Examination 2021-22)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>₹ 149.00</t>
+          <t>₹ 540.00</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="E37" t="n">
-        <v>2264</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="38">
@@ -1222,19 +1222,19 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Attitude Is Everything: Change Your Attitude ... Change Your Life!</t>
+          <t>365 Colouring Book</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>₹ 161.00</t>
+          <t>₹ 195.00</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="E38" t="n">
-        <v>8518</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="39">
@@ -1243,19 +1243,19 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>My First 1000 Words: Early Learning Picture Book to Learn Alphabet, Numbers, Shapes and Colours, Transport, Birds and…</t>
+          <t>Harry Potter and the Philosopher's Stone</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>₹ 199.00</t>
+          <t>₹ 262.00</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="E39" t="n">
-        <v>1943</v>
+        <v>26411</v>
       </c>
     </row>
     <row r="40">
@@ -1264,19 +1264,19 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>The Monk Who Sold His Ferrari</t>
+          <t>Brain Games for Clever Kids: Puzzles to Exercise Your Mind (Buster Brain Games, 1)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>₹ 161.00</t>
+          <t>₹ 199.00</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="E40" t="n">
-        <v>12932</v>
+        <v>4472</v>
       </c>
     </row>
     <row r="41">
@@ -1285,19 +1285,19 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Death; An Inside Story: A book for all those who shall die</t>
+          <t>Ruskin Bond - Best Selling Children Story Books Collection (Set of 4 Books)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>₹ 205.00</t>
+          <t>₹ 359.00</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="E41" t="n">
-        <v>4473</v>
+        <v>985</v>
       </c>
     </row>
     <row r="42">
@@ -1306,19 +1306,19 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Brain Games for Clever Kids: Puzzles to Exercise Your Mind (Buster Brain Games, 1)</t>
+          <t>Moral Story Books for Kids (Pack of 10 Books) | 160 Total Pages | Illustrated Stories</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>₹ 199.00</t>
+          <t>₹ 225.00</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="E42" t="n">
-        <v>4413</v>
+        <v>449</v>
       </c>
     </row>
     <row r="43">
@@ -1327,19 +1327,19 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>As a Man Thinketh</t>
+          <t>Life's Amazing Secrets: How to Find Balance and Purpose in Your Life</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>₹ 59.00</t>
+          <t>₹ 205.00</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="E43" t="n">
-        <v>2054</v>
+        <v>7376</v>
       </c>
     </row>
     <row r="44">
@@ -1348,19 +1348,19 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>The Complete Novels of Sherlock Holmes</t>
+          <t>The Monk Who Sold His Ferrari</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>₹ 136.00</t>
+          <t>₹ 191.00</t>
         </is>
       </c>
       <c r="D44" t="n">
         <v>4.5</v>
       </c>
       <c r="E44" t="n">
-        <v>7363</v>
+        <v>13132</v>
       </c>
     </row>
     <row r="45">
@@ -1369,19 +1369,19 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>The Silent Patient: The record-breaking, multimillion copy Sunday Times bestselling thriller and Richard &amp; Judy book…</t>
+          <t>Attitude Is Everything: Change Your Attitude ... Change Your Life!</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>₹ 278.00</t>
+          <t>₹ 171.00</t>
         </is>
       </c>
       <c r="D45" t="n">
         <v>4.5</v>
       </c>
       <c r="E45" t="n">
-        <v>66243</v>
+        <v>8765</v>
       </c>
     </row>
     <row r="46">
@@ -1390,19 +1390,19 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>A Modern Approach to Verbal &amp; Non-Verbal Reasoning (2 Colour Edition)</t>
+          <t>The Silent Patient: The record-breaking, multimillion copy Sunday Times bestselling thriller and Richard &amp; Judy book…</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>₹ 549.00</t>
+          <t>₹ 288.00</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="E46" t="n">
-        <v>4846</v>
+        <v>66461</v>
       </c>
     </row>
     <row r="47">
@@ -1411,19 +1411,19 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>505 Activities for Kids</t>
+          <t>Colour with Crayons Part - 1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>₹ 165.00</t>
+          <t>₹ 56.00</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="E47" t="n">
-        <v>2944</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="48">
@@ -1432,19 +1432,19 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Concept of Physics - Part 1 &amp; 2 2019 - 2020 Session (Set of 2 books)</t>
+          <t>The Blue Umbrella</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>₹ 700.00</t>
+          <t>₹ 95.00</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="E48" t="n">
-        <v>1063</v>
+        <v>4778</v>
       </c>
     </row>
     <row r="49">
@@ -1465,7 +1465,7 @@
         <v>4.5</v>
       </c>
       <c r="E49" t="n">
-        <v>1025</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="50">
@@ -1474,19 +1474,19 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>My Activity- ABC Writing Book</t>
+          <t>Animals Tales From Panchtantra: Timeless Stories for Children From Ancient India</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>₹ 60.00</t>
+          <t>₹ 199.00</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="E50" t="n">
-        <v>979</v>
+        <v>724</v>
       </c>
     </row>
     <row r="51">
@@ -1495,19 +1495,19 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Inner Engineering: A Yogi’s Guide to Joy</t>
+          <t>The Richest Man in Babylon</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>₹ 194.00</t>
+          <t>₹ 99.00</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="E51" t="n">
-        <v>9102</v>
+        <v>17232</v>
       </c>
     </row>
   </sheetData>
